--- a/Lofthus_frukt_og_grønt-CA.xlsx
+++ b/Lofthus_frukt_og_grønt-CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johegd\Documents\Front End Development\Project Methodology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286CEB3D-A620-4C18-81BF-05B8C4EF0E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F2034B-1126-4F97-85DE-D29CDA138841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="90" windowWidth="24195" windowHeight="15435" xr2:uid="{03CAF3E6-CDF1-465F-A062-188108ED9CCD}"/>
   </bookViews>
@@ -622,7 +622,7 @@
       <sheetName val="Manual Chart"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="B9" t="str">
@@ -823,7 +823,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:BO993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -1596,7 +1596,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="29"/>
@@ -1676,7 +1676,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="36"/>
@@ -1757,7 +1757,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="34">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="29"/>
@@ -1838,7 +1838,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="27">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29"/>
@@ -1919,7 +1919,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="37">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29"/>
@@ -2000,7 +2000,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="38">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29"/>
@@ -2081,7 +2081,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="29"/>
@@ -2229,7 +2229,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
@@ -2310,7 +2310,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="46">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="29"/>
@@ -2391,7 +2391,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="47">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
@@ -2472,7 +2472,7 @@
         <v>54</v>
       </c>
       <c r="G16" s="47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
@@ -2623,7 +2623,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
@@ -2704,7 +2704,7 @@
         <v>53</v>
       </c>
       <c r="G19" s="47">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
@@ -2785,7 +2785,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="47">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="29"/>
@@ -2866,7 +2866,7 @@
         <v>53</v>
       </c>
       <c r="G21" s="47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="29"/>
@@ -3017,7 +3017,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="29"/>
@@ -3098,7 +3098,7 @@
         <v>54</v>
       </c>
       <c r="G24" s="47">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="29"/>
@@ -3179,7 +3179,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="47">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
@@ -3260,7 +3260,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="47">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="29"/>
@@ -3411,7 +3411,7 @@
         <v>54</v>
       </c>
       <c r="G28" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -3492,7 +3492,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="47">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -3530,7 +3530,7 @@
         <v>34</v>
       </c>
       <c r="G30" s="47">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
